--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,99 +11,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>CourseName</t>
   </si>
   <si>
-    <t>Elite Performance</t>
-  </si>
-  <si>
-    <t>Elite Gold</t>
-  </si>
-  <si>
-    <t>Elite Silver</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Below 40</t>
+    <t>Certificate-Type</t>
   </si>
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>User Interface Design</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Problem solving through Programming In C</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Programming in Java</t>
-  </si>
-  <si>
-    <t>Joy of computing using Python</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>Data Base Management System</t>
-  </si>
-  <si>
-    <t>Data Mining</t>
-  </si>
-  <si>
-    <t>Blockchain Architecture Design and Use Cases</t>
-  </si>
-  <si>
-    <t>Cryptography and Network Security</t>
-  </si>
-  <si>
-    <t>Introduction to Internet of Things</t>
-  </si>
-  <si>
-    <t>Introduction to Industry 4.0 and Industrial Internet of Things</t>
-  </si>
-  <si>
-    <t>Machine Learning, ML</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Principles of Signals and Systems</t>
-  </si>
-  <si>
-    <t>Electric Vehicles - Part 1</t>
-  </si>
-  <si>
-    <t>Antennas</t>
-  </si>
-  <si>
-    <t>Introduction to Photonics</t>
-  </si>
-  <si>
-    <t>Teaching And Learning in Engineering (TALE)</t>
-  </si>
-  <si>
-    <t>Fuzzy Logic and Neural Networks</t>
-  </si>
-  <si>
-    <t>Non-Conventional Energy Resources</t>
-  </si>
-  <si>
-    <t>Enhancing Soft Skills and Personality</t>
-  </si>
-  <si>
-    <t>Ethics in Engineering Practice</t>
+    <t>Digital Image Processing of Remote Sensing Data</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Introduction to Machine Learning</t>
+  </si>
+  <si>
+    <t>Programming, data structures and algorithms using python</t>
+  </si>
+  <si>
+    <t>Introduction to operating systems</t>
+  </si>
+  <si>
+    <t>Fundamentals of Database Systems</t>
+  </si>
+  <si>
+    <t>Introduction to Modern Application Development</t>
+  </si>
+  <si>
+    <t>Introduction to Programming in C</t>
+  </si>
+  <si>
+    <t>Technical english for engineers</t>
+  </si>
+  <si>
+    <t>Introduction to Psychology</t>
+  </si>
+  <si>
+    <t>Developing Soft Skills and Personality</t>
+  </si>
+  <si>
+    <t>Marketing research and analysis</t>
   </si>
 </sst>
 </file>
@@ -480,14 +432,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:C25"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="7" width="10" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,177 +449,197 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>CourseName</t>
   </si>
   <si>
-    <t>Certificate-Type</t>
+    <t>elitegold</t>
   </si>
   <si>
     <t>Year</t>
@@ -25,7 +25,7 @@
     <t>Digital Image Processing of Remote Sensing Data</t>
   </si>
   <si>
-    <t>2017</t>
+    <t>0</t>
   </si>
   <si>
     <t>Introduction to Machine Learning</t>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Introduction to Modern Application Development</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>Introduction to Programming in C</t>
@@ -450,195 +453,195 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>7</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>3</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>4</v>
       </c>
     </row>
